--- a/biology/Histoire de la zoologie et de la botanique/Juan_A._Pisano/Juan_A._Pisano.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Juan_A._Pisano/Juan_A._Pisano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juan A. Pisano (? - 1967) est un paléontologue argentin qui a travaillé à l’Université nationale de La Plata et au Muséum de La Plata (en).
-Le nom du dinosaure Pisanosaurus lui est dédié : il vient du grec sauros signifiant « lézard »[1] et du nom du paléontologue argentin Juan A. Pisano[2], associé du découvreur de ce dinosaure, Rodolfo Casamiquela.
+Le nom du dinosaure Pisanosaurus lui est dédié : il vient du grec sauros signifiant « lézard » et du nom du paléontologue argentin Juan A. Pisano, associé du découvreur de ce dinosaure, Rodolfo Casamiquela.
 </t>
         </is>
       </c>
